--- a/GATEWAY/A1#111GRUPPOGPI00/TESI_SPA/WINLAB/5.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111GRUPPOGPI00/TESI_SPA/WINLAB/5.0/report-checklist.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bugs\FSE2_0\Accreditamento\WINLAB\TESTCASE\20230420_TESTCASE_WINLAB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bugs\FSE2_0\Accreditamento\WINLAB\TESTCASE\20230427_TESTCASE_WINLAB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EEF35725-7F4C-43A5-A3C4-13131F86CC1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7769B68-2D16-4C33-8961-A4089DBCBF42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-240" yWindow="0" windowWidth="38640" windowHeight="15600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="5" r:id="rId1"/>
@@ -1895,9 +1895,6 @@
     <t>Il campo action_id non è corretto</t>
   </si>
   <si>
-    <t>vengono salvati i log delle validazioni sul database, poi l'utente può andare in quella tabella e consultare eventuali errori e da lì aprire il prelievo, eventualmente correggere, rigenerare il referto e rifirmare</t>
-  </si>
-  <si>
     <t>il campo oggetto del test (BATTERY/code) è sempre valorizzato</t>
   </si>
   <si>
@@ -1953,6 +1950,13 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.690357.4.4.768ebbe5ebf44d5253a069c6e95c8551dff358056d1b46e9e352aa55cead242e.ec43c670e1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>In caso di timeout il processo applicativo prosegue ed il documento viene firmato. 
+Eventuali re-invii di validazione vengono concordati/definiti con le singole Aziende. 
+Viene messo a disposizione dell'Azienda una modalità di verifica dei documenti che hanno avuto errori di validazione da parte del gateway per poterli individuare e procedere alla correzione, firma e re-invio.
+Gli utenti abilitati (ad esempio le figure di Back-office concordate con l'Azienda) possono accedere ai dati e consultare eventuali errori andando ad individuare i referti da correggere. 
+Dopo la correzioni, il referto sarà ri-generato ed il Medico lo potrà rifirmare.</t>
   </si>
 </sst>
 </file>
@@ -2369,7 +2373,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -2484,6 +2488,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2505,15 +2512,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3962,10 +3960,10 @@
   <dimension ref="A1:T993"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="F43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="F1" sqref="F1:I1048576"/>
+      <selection pane="bottomRight" activeCell="P51" sqref="P51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4007,12 +4005,12 @@
       <c r="T1" s="39"/>
     </row>
     <row r="2" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="45"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="46"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -4030,14 +4028,14 @@
       <c r="T2" s="39"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="53" t="s">
-        <v>453</v>
-      </c>
-      <c r="D3" s="45"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="54" t="s">
+        <v>452</v>
+      </c>
+      <c r="D3" s="46"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -4055,12 +4053,12 @@
       <c r="T3" s="39"/>
     </row>
     <row r="4" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="49"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="53" t="s">
+      <c r="A4" s="50"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="54" t="s">
         <v>433</v>
       </c>
-      <c r="D4" s="45"/>
+      <c r="D4" s="46"/>
       <c r="E4" s="2"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -4079,12 +4077,12 @@
       <c r="T4" s="39"/>
     </row>
     <row r="5" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="51"/>
-      <c r="B5" s="52"/>
-      <c r="C5" s="53" t="s">
-        <v>454</v>
-      </c>
-      <c r="D5" s="45"/>
+      <c r="A5" s="52"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="54" t="s">
+        <v>453</v>
+      </c>
+      <c r="D5" s="46"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
@@ -4102,8 +4100,8 @@
       <c r="T5" s="39"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="42"/>
-      <c r="B6" s="43"/>
+      <c r="A6" s="43"/>
+      <c r="B6" s="44"/>
       <c r="C6" s="10"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -4236,17 +4234,17 @@
       <c r="E10" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="54">
+      <c r="F10" s="17">
         <v>45037</v>
       </c>
-      <c r="G10" s="55" t="s">
+      <c r="G10" s="18" t="s">
+        <v>455</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>454</v>
+      </c>
+      <c r="I10" s="18" t="s">
         <v>456</v>
-      </c>
-      <c r="H10" s="55" t="s">
-        <v>455</v>
-      </c>
-      <c r="I10" s="55" t="s">
-        <v>457</v>
       </c>
       <c r="J10" s="19" t="s">
         <v>83</v>
@@ -4282,17 +4280,17 @@
       <c r="E11" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="54">
+      <c r="F11" s="17">
         <v>45037</v>
       </c>
-      <c r="G11" s="55" t="s">
+      <c r="G11" s="18" t="s">
+        <v>458</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>457</v>
+      </c>
+      <c r="I11" s="18" t="s">
         <v>459</v>
-      </c>
-      <c r="H11" s="55" t="s">
-        <v>458</v>
-      </c>
-      <c r="I11" s="55" t="s">
-        <v>460</v>
       </c>
       <c r="J11" s="19" t="s">
         <v>83</v>
@@ -4328,17 +4326,17 @@
       <c r="E12" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="54">
+      <c r="F12" s="17">
         <v>45037</v>
       </c>
-      <c r="G12" s="55" t="s">
+      <c r="G12" s="18" t="s">
+        <v>461</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>460</v>
+      </c>
+      <c r="I12" s="18" t="s">
         <v>462</v>
-      </c>
-      <c r="H12" s="55" t="s">
-        <v>461</v>
-      </c>
-      <c r="I12" s="55" t="s">
-        <v>463</v>
       </c>
       <c r="J12" s="19" t="s">
         <v>83</v>
@@ -4374,17 +4372,17 @@
       <c r="E13" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="54">
+      <c r="F13" s="17">
         <v>45037</v>
       </c>
-      <c r="G13" s="55" t="s">
+      <c r="G13" s="18" t="s">
+        <v>464</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>463</v>
+      </c>
+      <c r="I13" s="18" t="s">
         <v>465</v>
-      </c>
-      <c r="H13" s="55" t="s">
-        <v>464</v>
-      </c>
-      <c r="I13" s="55" t="s">
-        <v>466</v>
       </c>
       <c r="J13" s="19" t="s">
         <v>83</v>
@@ -4420,17 +4418,17 @@
       <c r="E14" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="54">
+      <c r="F14" s="17">
         <v>45037</v>
       </c>
-      <c r="G14" s="55" t="s">
+      <c r="G14" s="18" t="s">
+        <v>466</v>
+      </c>
+      <c r="H14" s="42" t="s">
         <v>467</v>
       </c>
-      <c r="H14" s="56" t="s">
+      <c r="I14" s="18" t="s">
         <v>468</v>
-      </c>
-      <c r="I14" s="55" t="s">
-        <v>469</v>
       </c>
       <c r="J14" s="19" t="s">
         <v>83</v>
@@ -5148,10 +5146,10 @@
       <c r="E35" s="41" t="s">
         <v>431</v>
       </c>
-      <c r="F35" s="54"/>
-      <c r="G35" s="55"/>
-      <c r="H35" s="55"/>
-      <c r="I35" s="55"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
       <c r="J35" s="19" t="s">
         <v>309</v>
       </c>
@@ -5436,10 +5434,10 @@
       <c r="E43" s="41" t="s">
         <v>432</v>
       </c>
-      <c r="F43" s="54"/>
-      <c r="G43" s="55"/>
-      <c r="H43" s="55"/>
-      <c r="I43" s="55"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="18"/>
       <c r="J43" s="19" t="s">
         <v>309</v>
       </c>
@@ -5708,7 +5706,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:20" ht="405.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="14">
         <v>44</v>
       </c>
@@ -5724,12 +5722,12 @@
       <c r="E51" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="F51" s="54">
+      <c r="F51" s="17">
         <v>45037</v>
       </c>
-      <c r="G51" s="55"/>
-      <c r="H51" s="55"/>
-      <c r="I51" s="55"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="18"/>
+      <c r="I51" s="18"/>
       <c r="J51" s="19" t="s">
         <v>83</v>
       </c>
@@ -5745,7 +5743,7 @@
         <v>83</v>
       </c>
       <c r="P51" s="19" t="s">
-        <v>450</v>
+        <v>469</v>
       </c>
       <c r="Q51" s="19" t="s">
         <v>307</v>
@@ -6024,10 +6022,10 @@
       <c r="E59" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="F59" s="54"/>
-      <c r="G59" s="55"/>
-      <c r="H59" s="55"/>
-      <c r="I59" s="55"/>
+      <c r="F59" s="17"/>
+      <c r="G59" s="18"/>
+      <c r="H59" s="18"/>
+      <c r="I59" s="18"/>
       <c r="J59" s="19" t="s">
         <v>309</v>
       </c>
@@ -6062,10 +6060,10 @@
       <c r="E60" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="F60" s="54"/>
-      <c r="G60" s="55"/>
-      <c r="H60" s="55"/>
-      <c r="I60" s="55"/>
+      <c r="F60" s="17"/>
+      <c r="G60" s="18"/>
+      <c r="H60" s="18"/>
+      <c r="I60" s="18"/>
       <c r="J60" s="19" t="s">
         <v>309</v>
       </c>
@@ -6100,10 +6098,10 @@
       <c r="E61" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="F61" s="54"/>
-      <c r="G61" s="55"/>
-      <c r="H61" s="55"/>
-      <c r="I61" s="55"/>
+      <c r="F61" s="17"/>
+      <c r="G61" s="18"/>
+      <c r="H61" s="18"/>
+      <c r="I61" s="18"/>
       <c r="J61" s="19" t="s">
         <v>309</v>
       </c>
@@ -6138,10 +6136,10 @@
       <c r="E62" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="F62" s="54"/>
-      <c r="G62" s="55"/>
-      <c r="H62" s="55"/>
-      <c r="I62" s="55"/>
+      <c r="F62" s="17"/>
+      <c r="G62" s="18"/>
+      <c r="H62" s="18"/>
+      <c r="I62" s="18"/>
       <c r="J62" s="19" t="s">
         <v>309</v>
       </c>
@@ -6176,10 +6174,10 @@
       <c r="E63" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="F63" s="54"/>
-      <c r="G63" s="55"/>
-      <c r="H63" s="55"/>
-      <c r="I63" s="55"/>
+      <c r="F63" s="17"/>
+      <c r="G63" s="18"/>
+      <c r="H63" s="18"/>
+      <c r="I63" s="18"/>
       <c r="J63" s="19" t="s">
         <v>309</v>
       </c>
@@ -6214,10 +6212,10 @@
       <c r="E64" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="F64" s="54"/>
-      <c r="G64" s="55"/>
-      <c r="H64" s="55"/>
-      <c r="I64" s="55"/>
+      <c r="F64" s="17"/>
+      <c r="G64" s="18"/>
+      <c r="H64" s="18"/>
+      <c r="I64" s="18"/>
       <c r="J64" s="19" t="s">
         <v>309</v>
       </c>
@@ -6252,10 +6250,10 @@
       <c r="E65" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="F65" s="54"/>
-      <c r="G65" s="55"/>
-      <c r="H65" s="55"/>
-      <c r="I65" s="55"/>
+      <c r="F65" s="17"/>
+      <c r="G65" s="18"/>
+      <c r="H65" s="18"/>
+      <c r="I65" s="18"/>
       <c r="J65" s="19" t="s">
         <v>309</v>
       </c>
@@ -6290,10 +6288,10 @@
       <c r="E66" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="F66" s="54"/>
-      <c r="G66" s="55"/>
-      <c r="H66" s="55"/>
-      <c r="I66" s="55"/>
+      <c r="F66" s="17"/>
+      <c r="G66" s="18"/>
+      <c r="H66" s="18"/>
+      <c r="I66" s="18"/>
       <c r="J66" s="19" t="s">
         <v>309</v>
       </c>
@@ -6328,10 +6326,10 @@
       <c r="E67" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="F67" s="54"/>
-      <c r="G67" s="55"/>
-      <c r="H67" s="55"/>
-      <c r="I67" s="55"/>
+      <c r="F67" s="17"/>
+      <c r="G67" s="18"/>
+      <c r="H67" s="18"/>
+      <c r="I67" s="18"/>
       <c r="J67" s="19" t="s">
         <v>309</v>
       </c>
@@ -6412,7 +6410,7 @@
         <v>309</v>
       </c>
       <c r="K69" s="19" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="L69" s="19"/>
       <c r="M69" s="19"/>
@@ -10802,7 +10800,7 @@
         <v>309</v>
       </c>
       <c r="K198" s="19" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="L198" s="19"/>
       <c r="M198" s="19"/>
@@ -26597,26 +26595,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b4730850ec8220df2460bf5d75163141">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c2168c1cf3d5a08369735c09b24c7b76" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -26847,32 +26825,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1940EA21-F316-4004-B0A9-40138AAC7DA1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D58B9263-706C-436D-BB9D-8B538C07064D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB221413-913B-41FE-97D3-5428BD0403A1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -26891,6 +26864,31 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D58B9263-706C-436D-BB9D-8B538C07064D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1940EA21-F316-4004-B0A9-40138AAC7DA1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{e0793d39-0939-496d-b129-198edd916feb}" enabled="0" method="" siteId="{e0793d39-0939-496d-b129-198edd916feb}" removed="1"/>
